--- a/compras.xlsx
+++ b/compras.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,220 +444,83 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Unidad</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Precio</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>DJ001P00001</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pepe´s</t>
+          <t>PEPE'S</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>pan molde</t>
+          <t>Pan Bimbo</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E2" t="n">
-        <v>15</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2023-10-02 21:51:31</t>
+        <v>100</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>paquete 1kg</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2023-10-13 17:42:57</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>DJ001P00002</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pepito's</t>
+          <t>pepe's</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>alibaba</t>
+          <t>atun marisol</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2023-10-02 23:48:42</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pepe's</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>atun</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2023-10-02 23:55:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>lata 250g</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>pepe's</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>pan molde</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2023-10-03 00:02:05</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>pan integral</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>pan integral</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2023-10-03 00:04:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>pepe's</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>pan molde</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2023-10-03 00:14:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>pepe's</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>pan cpp</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2023-10-03 09:38:03</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>atun</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">atun </t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2023-10-04 00:16:05</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2023-10-13 18:03:38</t>
         </is>
       </c>
     </row>
